--- a/Doc/Algorithm_of_each_Question/table.xlsx
+++ b/Doc/Algorithm_of_each_Question/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\#project\ALGORITHM_Questions.Mars\Doc\Algorithm_of_each_Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF4F813-D53E-456A-90E5-886E189FF1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72A8BBC-D2ED-4A79-9F1F-508DB08217ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,37 +25,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="13">
   <si>
     <t>start</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>placeholder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>?</t>
+    <t>×</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -94,18 +106,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -141,19 +147,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -434,252 +441,576 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="4.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="3.58203125" customWidth="1"/>
+    <col min="2" max="2" width="4.25" customWidth="1"/>
+    <col min="3" max="3" width="4.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="3.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>